--- a/DSCQS実験結果.xlsx
+++ b/DSCQS実験結果.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="15">
   <si>
     <t>被験者</t>
     <rPh sb="0" eb="3">
@@ -97,13 +97,31 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>全画像</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -139,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -521,35 +539,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -561,115 +721,208 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -709,30 +962,20 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
@@ -740,20 +983,6 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -776,40 +1005,12 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
             <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -831,16 +1032,30 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Q1'!$B$21:$I$21</c:f>
+                <c:f>'Q1'!$B$21:$K$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="10"/>
                   <c:pt idx="0">
                     <c:v>12.5</c:v>
                   </c:pt>
@@ -864,16 +1079,22 @@
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>31.457643480294792</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>20.155644370746373</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>19.297560294849017</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Q1'!$B$21:$I$21</c:f>
+                <c:f>'Q1'!$B$21:$K$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="10"/>
                   <c:pt idx="0">
                     <c:v>12.5</c:v>
                   </c:pt>
@@ -897,6 +1118,12 @@
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>31.457643480294792</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>20.155644370746373</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>19.297560294849017</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -917,9 +1144,9 @@
           </c:errBars>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Q1'!$B$2:$I$3</c:f>
+              <c:f>'Q1'!$B$2:$K$3</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>A</c:v>
@@ -943,6 +1170,12 @@
                     <c:v>A</c:v>
                   </c:pt>
                   <c:pt idx="7">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
                     <c:v>B</c:v>
                   </c:pt>
                 </c:lvl>
@@ -958,6 +1191,9 @@
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>画像4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>全画像</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -965,10 +1201,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Q1'!$B$20:$I$20</c:f>
+              <c:f>'Q1'!$B$20:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>0.000_ </c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>31.25</c:v>
                 </c:pt>
@@ -993,6 +1229,12 @@
                 <c:pt idx="7">
                   <c:v>68.75</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73.4375</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1005,20 +1247,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="205"/>
-        <c:overlap val="-59"/>
-        <c:axId val="570335696"/>
-        <c:axId val="570336480"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="601011840"/>
+        <c:axId val="601012624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="570335696"/>
+        <c:axId val="601011840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1054,7 +1296,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570336480"/>
+        <c:crossAx val="601012624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1062,7 +1304,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="570336480"/>
+        <c:axId val="601012624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1114,7 +1356,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570335696"/>
+        <c:crossAx val="601011840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1254,16 +1496,30 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Q1'!$L$21:$S$21</c:f>
+                <c:f>'Q1'!$N$21:$W$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="10"/>
                   <c:pt idx="0">
                     <c:v>25</c:v>
                   </c:pt>
@@ -1287,16 +1543,22 @@
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>12.5</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>22.12653007891959</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>18.257418583505537</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Q1'!$L$21:$S$21</c:f>
+                <c:f>'Q1'!$N$21:$W$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="10"/>
                   <c:pt idx="0">
                     <c:v>25</c:v>
                   </c:pt>
@@ -1320,6 +1582,12 @@
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>12.5</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>22.12653007891959</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>18.257418583505537</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1340,9 +1608,9 @@
           </c:errBars>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Q1'!$L$2:$S$3</c:f>
+              <c:f>'Q1'!$N$2:$W$3</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>A</c:v>
@@ -1366,6 +1634,12 @@
                     <c:v>A</c:v>
                   </c:pt>
                   <c:pt idx="7">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
                     <c:v>B</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1381,6 +1655,9 @@
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>画像4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>全画像</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1388,10 +1665,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Q1'!$L$20:$S$20</c:f>
+              <c:f>'Q1'!$N$20:$W$20</c:f>
               <c:numCache>
                 <c:formatCode>0.000_ </c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>37.5</c:v>
                 </c:pt>
@@ -1416,6 +1693,12 @@
                 <c:pt idx="7">
                   <c:v>56.25</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1430,11 +1713,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="565402736"/>
-        <c:axId val="565396464"/>
+        <c:axId val="592969032"/>
+        <c:axId val="592964328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="565402736"/>
+        <c:axId val="592969032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1477,7 +1760,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565396464"/>
+        <c:crossAx val="592964328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1485,7 +1768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="565396464"/>
+        <c:axId val="592964328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1537,7 +1820,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565402736"/>
+        <c:crossAx val="592969032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1630,7 +1913,9 @@
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1677,16 +1962,30 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Q1'!$V$21:$AC$21</c:f>
+                <c:f>'Q1'!$Z$21:$AI$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="10"/>
                   <c:pt idx="0">
                     <c:v>12.5</c:v>
                   </c:pt>
@@ -1710,16 +2009,22 @@
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>31.457643480294792</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>15.811388300841896</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>20.412414523193153</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Q1'!$V$21:$AC$21</c:f>
+                <c:f>'Q1'!$Z$21:$AI$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="10"/>
                   <c:pt idx="0">
                     <c:v>12.5</c:v>
                   </c:pt>
@@ -1743,6 +2048,12 @@
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>31.457643480294792</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>15.811388300841896</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>20.412414523193153</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1763,9 +2074,9 @@
           </c:errBars>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Q1'!$V$2:$AC$3</c:f>
+              <c:f>'Q1'!$Z$2:$AI$3</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>A</c:v>
@@ -1789,6 +2100,12 @@
                     <c:v>A</c:v>
                   </c:pt>
                   <c:pt idx="7">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
                     <c:v>B</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1804,6 +2121,9 @@
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>画像4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>全画像</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1811,10 +2131,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Q1'!$V$20:$AC$20</c:f>
+              <c:f>'Q1'!$Z$20:$AI$20</c:f>
               <c:numCache>
                 <c:formatCode>0.000_ </c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>43.75</c:v>
                 </c:pt>
@@ -1839,6 +2159,12 @@
                 <c:pt idx="7">
                   <c:v>68.75</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1853,11 +2179,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="566193712"/>
-        <c:axId val="566198416"/>
+        <c:axId val="451009552"/>
+        <c:axId val="451010728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="566193712"/>
+        <c:axId val="451009552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1900,7 +2226,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566198416"/>
+        <c:crossAx val="451010728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1908,7 +2234,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="566198416"/>
+        <c:axId val="451010728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1936,9 +2262,7 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1962,11 +2286,10 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566193712"/>
+        <c:crossAx val="451009552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
-        <c:minorUnit val="5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3647,19 +3970,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>22412</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>29136</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvPr id="8" name="グラフ 7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3676,20 +3999,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571498</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>29133</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="グラフ 4"/>
+        <xdr:cNvPr id="9" name="グラフ 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3706,20 +4029,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>22410</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>118783</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="グラフ 5"/>
+        <xdr:cNvPr id="10" name="グラフ 9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4000,1174 +4323,1468 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC21"/>
+  <dimension ref="A1:AI59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V20" activeCellId="1" sqref="V2:AC3 V20:AC20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="7.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="1.5" customWidth="1"/>
-    <col min="11" max="11" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="19" width="7.5" customWidth="1"/>
-    <col min="20" max="20" width="0.875" customWidth="1"/>
-    <col min="21" max="21" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="29" width="7.5" customWidth="1"/>
+    <col min="2" max="5" width="7.5" style="1" customWidth="1"/>
+    <col min="6" max="9" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" customWidth="1"/>
+    <col min="13" max="13" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" customWidth="1"/>
+    <col min="15" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5" customWidth="1"/>
+    <col min="18" max="23" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5" customWidth="1"/>
+    <col min="25" max="25" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="7.5" customWidth="1"/>
+    <col min="29" max="33" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="3" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30"/>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:35" s="3" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="77"/>
+      <c r="B1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="13"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="11" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="66"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="13"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="11" t="s">
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="66"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="13"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="66"/>
     </row>
-    <row r="2" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="24"/>
+      <c r="B2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="54"/>
+      <c r="F2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="12" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="18" t="s">
+      <c r="I2" s="54"/>
+      <c r="J2" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="51"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="51"/>
+      <c r="P2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="51"/>
+      <c r="R2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="18" t="s">
+      <c r="S2" s="51"/>
+      <c r="T2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="4"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="18" t="s">
+      <c r="U2" s="51"/>
+      <c r="V2" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="51"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="15"/>
-      <c r="X2" s="12" t="s">
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="12" t="s">
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="18" t="s">
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="4"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI2" s="51"/>
     </row>
-    <row r="3" spans="1:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:35" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="J3" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="N3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="O3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="P3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="Q3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="R3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="S3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="T3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="U3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="47" t="s">
+      <c r="V3" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="19" t="s">
+      <c r="Z3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="W3" s="17" t="s">
+      <c r="AA3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="AB3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="AC3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="AD3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AE3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AB3" s="19" t="s">
+      <c r="AF3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="AG3" s="8" t="s">
         <v>2</v>
       </c>
+      <c r="AH3" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI3" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A4" s="43">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
         <v>1</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="33">
         <v>25</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="74">
         <v>75</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="74">
         <v>25</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="74">
         <v>75</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="74">
         <v>75</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="74">
         <v>100</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="74">
         <v>25</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="74">
         <v>75</v>
       </c>
-      <c r="K4" s="43">
+      <c r="J4" s="67"/>
+      <c r="K4" s="68"/>
+      <c r="M4" s="32">
         <v>1</v>
       </c>
-      <c r="L4" s="44">
+      <c r="N4" s="33">
         <v>25</v>
       </c>
-      <c r="M4" s="45">
+      <c r="O4" s="34">
         <v>75</v>
       </c>
-      <c r="N4" s="46">
+      <c r="P4" s="35">
         <v>50</v>
       </c>
-      <c r="O4" s="14">
+      <c r="Q4" s="10">
         <v>75</v>
       </c>
-      <c r="P4" s="46">
+      <c r="R4" s="35">
         <v>75</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="S4" s="10">
         <v>75</v>
       </c>
-      <c r="R4" s="44">
+      <c r="T4" s="33">
         <v>25</v>
       </c>
-      <c r="S4" s="14">
+      <c r="U4" s="10">
         <v>75</v>
       </c>
-      <c r="U4" s="43">
+      <c r="V4" s="67"/>
+      <c r="W4" s="68"/>
+      <c r="Y4" s="32">
         <v>1</v>
       </c>
-      <c r="V4" s="44">
+      <c r="Z4" s="33">
         <v>50</v>
       </c>
-      <c r="W4" s="45">
+      <c r="AA4" s="34">
         <v>75</v>
       </c>
-      <c r="X4" s="46">
+      <c r="AB4" s="35">
         <v>50</v>
       </c>
-      <c r="Y4" s="14">
+      <c r="AC4" s="10">
         <v>100</v>
       </c>
-      <c r="Z4" s="46">
+      <c r="AD4" s="35">
         <v>75</v>
       </c>
-      <c r="AA4" s="14">
+      <c r="AE4" s="10">
         <v>75</v>
       </c>
-      <c r="AB4" s="44">
+      <c r="AF4" s="33">
         <v>50</v>
       </c>
-      <c r="AC4" s="14">
+      <c r="AG4" s="10">
         <v>75</v>
       </c>
+      <c r="AH4" s="67"/>
+      <c r="AI4" s="68"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A5" s="32">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A5" s="25">
         <v>2</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>25</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="40">
         <v>75</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="40">
         <v>25</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="40">
         <v>75</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="40">
         <v>75</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="40">
         <v>50</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="40">
         <v>25</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="40">
         <v>75</v>
       </c>
-      <c r="K5" s="32">
+      <c r="J5" s="43"/>
+      <c r="K5" s="56"/>
+      <c r="M5" s="25">
         <v>2</v>
       </c>
-      <c r="L5" s="10">
+      <c r="N5" s="9">
         <v>25</v>
       </c>
-      <c r="M5" s="16">
+      <c r="O5" s="11">
         <v>75</v>
       </c>
-      <c r="N5" s="5">
+      <c r="P5" s="4">
         <v>25</v>
       </c>
-      <c r="O5" s="6">
+      <c r="Q5" s="5">
         <v>75</v>
       </c>
-      <c r="P5" s="5">
+      <c r="R5" s="4">
         <v>75</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="S5" s="5">
         <v>50</v>
       </c>
-      <c r="R5" s="10">
+      <c r="T5" s="9">
         <v>75</v>
       </c>
-      <c r="S5" s="6">
+      <c r="U5" s="5">
         <v>50</v>
       </c>
-      <c r="U5" s="32">
+      <c r="V5" s="43"/>
+      <c r="W5" s="56"/>
+      <c r="Y5" s="25">
         <v>2</v>
       </c>
-      <c r="V5" s="10">
+      <c r="Z5" s="9">
         <v>25</v>
       </c>
-      <c r="W5" s="16">
+      <c r="AA5" s="11">
         <v>75</v>
       </c>
-      <c r="X5" s="5">
+      <c r="AB5" s="4">
         <v>25</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="AC5" s="5">
         <v>75</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="AD5" s="4">
         <v>75</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AE5" s="5">
         <v>50</v>
       </c>
-      <c r="AB5" s="10">
+      <c r="AF5" s="9">
         <v>25</v>
       </c>
-      <c r="AC5" s="6">
+      <c r="AG5" s="5">
         <v>75</v>
       </c>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="56"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A6" s="32">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A6" s="25">
         <v>3</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>25</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="40">
         <v>100</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="40">
         <v>25</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="40">
         <v>75</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="40">
         <v>50</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="40">
         <v>50</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="40">
         <v>75</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="40">
         <v>100</v>
       </c>
-      <c r="K6" s="32">
+      <c r="J6" s="43"/>
+      <c r="K6" s="56"/>
+      <c r="M6" s="25">
         <v>3</v>
       </c>
-      <c r="L6" s="10">
+      <c r="N6" s="9">
         <v>25</v>
       </c>
-      <c r="M6" s="16">
+      <c r="O6" s="11">
         <v>100</v>
       </c>
-      <c r="N6" s="5">
+      <c r="P6" s="4">
         <v>50</v>
       </c>
-      <c r="O6" s="6">
+      <c r="Q6" s="5">
         <v>100</v>
       </c>
-      <c r="P6" s="5">
+      <c r="R6" s="4">
         <v>25</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="S6" s="5">
         <v>75</v>
       </c>
-      <c r="R6" s="10">
+      <c r="T6" s="9">
         <v>75</v>
       </c>
-      <c r="S6" s="6">
+      <c r="U6" s="5">
         <v>50</v>
       </c>
-      <c r="U6" s="32">
+      <c r="V6" s="43"/>
+      <c r="W6" s="56"/>
+      <c r="Y6" s="25">
         <v>3</v>
       </c>
-      <c r="V6" s="10">
+      <c r="Z6" s="9">
         <v>50</v>
       </c>
-      <c r="W6" s="16">
+      <c r="AA6" s="11">
         <v>75</v>
       </c>
-      <c r="X6" s="5">
+      <c r="AB6" s="4">
         <v>50</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="AC6" s="5">
         <v>100</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="AD6" s="4">
         <v>75</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AE6" s="5">
         <v>50</v>
       </c>
-      <c r="AB6" s="10">
+      <c r="AF6" s="9">
         <v>50</v>
       </c>
-      <c r="AC6" s="6">
+      <c r="AG6" s="5">
         <v>100</v>
       </c>
+      <c r="AH6" s="43"/>
+      <c r="AI6" s="56"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A7" s="32">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A7" s="25">
         <v>4</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>50</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="40">
         <v>75</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="40">
         <v>25</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="40">
         <v>75</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="40">
         <v>50</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="40">
         <v>75</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="40">
         <v>50</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="40">
         <v>25</v>
       </c>
-      <c r="K7" s="32">
+      <c r="J7" s="43"/>
+      <c r="K7" s="56"/>
+      <c r="M7" s="25">
         <v>4</v>
       </c>
-      <c r="L7" s="10">
+      <c r="N7" s="9">
         <v>75</v>
       </c>
-      <c r="M7" s="16">
+      <c r="O7" s="11">
         <v>100</v>
       </c>
-      <c r="N7" s="5">
+      <c r="P7" s="4">
         <v>25</v>
       </c>
-      <c r="O7" s="6">
+      <c r="Q7" s="5">
         <v>75</v>
       </c>
-      <c r="P7" s="5">
+      <c r="R7" s="4">
         <v>50</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="S7" s="5">
         <v>100</v>
       </c>
-      <c r="R7" s="10">
+      <c r="T7" s="9">
         <v>50</v>
       </c>
-      <c r="S7" s="6">
+      <c r="U7" s="5">
         <v>50</v>
       </c>
-      <c r="U7" s="32">
+      <c r="V7" s="43"/>
+      <c r="W7" s="56"/>
+      <c r="Y7" s="25">
         <v>4</v>
       </c>
-      <c r="V7" s="10">
+      <c r="Z7" s="9">
         <v>50</v>
       </c>
-      <c r="W7" s="16">
+      <c r="AA7" s="11">
         <v>75</v>
       </c>
-      <c r="X7" s="5">
+      <c r="AB7" s="4">
         <v>50</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="AC7" s="5">
         <v>75</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="AD7" s="4">
         <v>50</v>
       </c>
-      <c r="AA7" s="6">
+      <c r="AE7" s="5">
         <v>100</v>
       </c>
-      <c r="AB7" s="10">
+      <c r="AF7" s="9">
         <v>50</v>
       </c>
-      <c r="AC7" s="6">
+      <c r="AG7" s="5">
         <v>25</v>
       </c>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="56"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A8" s="32">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A8" s="25">
         <v>5</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-      <c r="K8" s="32">
+      <c r="B8" s="9"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="56"/>
+      <c r="M8" s="25">
         <v>5</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="6"/>
-      <c r="U8" s="32">
+      <c r="N8" s="9"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="56"/>
+      <c r="Y8" s="25">
         <v>5</v>
       </c>
-      <c r="V8" s="10"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="6"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="43"/>
+      <c r="AI8" s="56"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A9" s="32">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A9" s="25">
         <v>6</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
-      <c r="K9" s="32">
+      <c r="B9" s="9"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="56"/>
+      <c r="M9" s="25">
         <v>6</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="6"/>
-      <c r="U9" s="32">
+      <c r="N9" s="9"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="56"/>
+      <c r="Y9" s="25">
         <v>6</v>
       </c>
-      <c r="V9" s="10"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="6"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="43"/>
+      <c r="AI9" s="56"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A10" s="32">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A10" s="25">
         <v>7</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6"/>
-      <c r="K10" s="32">
+      <c r="B10" s="9"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="56"/>
+      <c r="M10" s="25">
         <v>7</v>
       </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="6"/>
-      <c r="U10" s="32">
+      <c r="N10" s="9"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="56"/>
+      <c r="Y10" s="25">
         <v>7</v>
       </c>
-      <c r="V10" s="10"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="6"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="43"/>
+      <c r="AI10" s="56"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A11" s="32">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A11" s="25">
         <v>8</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6"/>
-      <c r="K11" s="32">
+      <c r="B11" s="9"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="56"/>
+      <c r="M11" s="25">
         <v>8</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="6"/>
-      <c r="U11" s="32">
+      <c r="N11" s="9"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="56"/>
+      <c r="Y11" s="25">
         <v>8</v>
       </c>
-      <c r="V11" s="10"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="6"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="43"/>
+      <c r="AI11" s="56"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A12" s="32">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A12" s="25">
         <v>9</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
-      <c r="K12" s="32">
+      <c r="B12" s="9"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="56"/>
+      <c r="M12" s="25">
         <v>9</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="6"/>
-      <c r="U12" s="32">
+      <c r="N12" s="9"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="56"/>
+      <c r="Y12" s="25">
         <v>9</v>
       </c>
-      <c r="V12" s="10"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="6"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="43"/>
+      <c r="AI12" s="56"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A13" s="32">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A13" s="25">
         <v>10</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
-      <c r="K13" s="32">
+      <c r="B13" s="9"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="56"/>
+      <c r="M13" s="25">
         <v>10</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="6"/>
-      <c r="U13" s="32">
+      <c r="N13" s="9"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="56"/>
+      <c r="Y13" s="25">
         <v>10</v>
       </c>
-      <c r="V13" s="10"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="6"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="43"/>
+      <c r="AI13" s="56"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A14" s="32">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A14" s="25">
         <v>11</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
-      <c r="K14" s="32">
+      <c r="B14" s="9"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="56"/>
+      <c r="M14" s="25">
         <v>11</v>
       </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="6"/>
-      <c r="U14" s="32">
+      <c r="N14" s="9"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="56"/>
+      <c r="Y14" s="25">
         <v>11</v>
       </c>
-      <c r="V14" s="10"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="6"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="43"/>
+      <c r="AI14" s="56"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A15" s="32">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A15" s="25">
         <v>12</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
-      <c r="K15" s="32">
+      <c r="B15" s="9"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="56"/>
+      <c r="M15" s="25">
         <v>12</v>
       </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="6"/>
-      <c r="U15" s="32">
+      <c r="N15" s="9"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="56"/>
+      <c r="Y15" s="25">
         <v>12</v>
       </c>
-      <c r="V15" s="10"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="6"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="43"/>
+      <c r="AI15" s="56"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A16" s="32">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A16" s="25">
         <v>13</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
-      <c r="K16" s="32">
+      <c r="B16" s="9"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="56"/>
+      <c r="M16" s="25">
         <v>13</v>
       </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="6"/>
-      <c r="U16" s="32">
+      <c r="N16" s="9"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="56"/>
+      <c r="Y16" s="25">
         <v>13</v>
       </c>
-      <c r="V16" s="10"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="6"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="43"/>
+      <c r="AI16" s="56"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A17" s="32">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A17" s="25">
         <v>14</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
-      <c r="K17" s="32">
+      <c r="B17" s="9"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="56"/>
+      <c r="M17" s="25">
         <v>14</v>
       </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="6"/>
-      <c r="U17" s="32">
+      <c r="N17" s="9"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="56"/>
+      <c r="Y17" s="25">
         <v>14</v>
       </c>
-      <c r="V17" s="10"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="6"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="43"/>
+      <c r="AI17" s="56"/>
     </row>
-    <row r="18" spans="1:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="33">
+    <row r="18" spans="1:35" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="36">
         <v>15</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="22"/>
-      <c r="K18" s="33">
+      <c r="B18" s="17"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="72"/>
+      <c r="M18" s="26">
         <v>15</v>
       </c>
-      <c r="L18" s="23"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="22"/>
-      <c r="U18" s="33">
+      <c r="N18" s="17"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="72"/>
+      <c r="Y18" s="26">
         <v>15</v>
       </c>
-      <c r="V18" s="23"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="22"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="71"/>
+      <c r="AI18" s="72"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A19" s="38"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="25"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="25"/>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="19"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="19"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="19"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A20" s="35" t="s">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A20" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="47">
         <f>AVERAGE(B4:B18)</f>
         <v>31.25</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="47">
         <f t="shared" ref="C20:I20" si="0">AVERAGE(C4:C18)</f>
         <v>81.25</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="47">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="47">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="47">
         <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
-      <c r="G20" s="40">
+      <c r="G20" s="47">
         <f t="shared" si="0"/>
         <v>68.75</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20" s="47">
         <f t="shared" si="0"/>
         <v>43.75</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="47">
         <f t="shared" si="0"/>
         <v>68.75</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="35" t="s">
+      <c r="J20" s="47">
+        <f>AVERAGE(B20,D20, F20, H20)</f>
+        <v>40.625</v>
+      </c>
+      <c r="K20" s="6">
+        <f>AVERAGE(C20, E20, G20, I20)</f>
+        <v>73.4375</v>
+      </c>
+      <c r="M20" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="L20" s="29">
-        <f t="shared" ref="L20:S20" si="1">AVERAGE(L4:L18)</f>
+      <c r="N20" s="30">
+        <f t="shared" ref="N20:U20" si="1">AVERAGE(N4:N18)</f>
         <v>37.5</v>
       </c>
-      <c r="M20" s="40">
+      <c r="O20" s="6">
         <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
-      <c r="N20" s="41">
+      <c r="P20" s="30">
         <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
-      <c r="O20" s="7">
+      <c r="Q20" s="6">
         <f t="shared" si="1"/>
         <v>81.25</v>
       </c>
-      <c r="P20" s="29">
+      <c r="R20" s="22">
         <f t="shared" si="1"/>
         <v>56.25</v>
       </c>
-      <c r="Q20" s="40">
+      <c r="S20" s="29">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="R20" s="41">
+      <c r="T20" s="30">
         <f t="shared" si="1"/>
         <v>56.25</v>
       </c>
-      <c r="S20" s="7">
+      <c r="U20" s="6">
         <f t="shared" si="1"/>
         <v>56.25</v>
       </c>
-      <c r="T20" s="2"/>
-      <c r="U20" s="35" t="s">
+      <c r="V20" s="30">
+        <f>AVERAGE(N20,P20, R20, T20)</f>
+        <v>46.875</v>
+      </c>
+      <c r="W20" s="6">
+        <f>AVERAGE(O20, Q20, S20, U20)</f>
+        <v>75</v>
+      </c>
+      <c r="Y20" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="V20" s="29">
-        <f t="shared" ref="V20:AC20" si="2">AVERAGE(V4:V18)</f>
+      <c r="Z20" s="30">
+        <f t="shared" ref="Z20:AG20" si="2">AVERAGE(Z4:Z18)</f>
         <v>43.75</v>
       </c>
-      <c r="W20" s="40">
+      <c r="AA20" s="6">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="X20" s="41">
+      <c r="AB20" s="30">
         <f t="shared" si="2"/>
         <v>43.75</v>
       </c>
-      <c r="Y20" s="7">
+      <c r="AC20" s="6">
         <f t="shared" si="2"/>
         <v>87.5</v>
       </c>
-      <c r="Z20" s="29">
+      <c r="AD20" s="22">
         <f t="shared" si="2"/>
         <v>68.75</v>
       </c>
-      <c r="AA20" s="40">
+      <c r="AE20" s="29">
         <f t="shared" si="2"/>
         <v>68.75</v>
       </c>
-      <c r="AB20" s="41">
+      <c r="AF20" s="30">
         <f t="shared" si="2"/>
         <v>43.75</v>
       </c>
-      <c r="AC20" s="7">
+      <c r="AG20" s="6">
         <f t="shared" si="2"/>
         <v>68.75</v>
       </c>
+      <c r="AH20" s="30">
+        <f>AVERAGE(Z20,AB20, AD20, AF20)</f>
+        <v>50</v>
+      </c>
+      <c r="AI20" s="6">
+        <f>AVERAGE(AA20, AC20, AE20, AG20)</f>
+        <v>75</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="36" t="s">
+    <row r="21" spans="1:35" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="58">
         <f>_xlfn.STDEV.S(B4:B18)</f>
         <v>12.5</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="58">
         <f t="shared" ref="C21:I21" si="3">_xlfn.STDEV.S(C4:C18)</f>
         <v>12.5</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="58">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="58">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="58">
         <f t="shared" si="3"/>
         <v>14.433756729740644</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="58">
         <f t="shared" si="3"/>
         <v>23.935677693908453</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="58">
         <f t="shared" si="3"/>
         <v>23.935677693908453</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="58">
         <f t="shared" si="3"/>
         <v>31.457643480294792</v>
       </c>
-      <c r="K21" s="36" t="s">
+      <c r="J21" s="58">
+        <f>_xlfn.STDEV.S(B4:B18,D4:D18,F4:F18,H4:H18)</f>
+        <v>20.155644370746373</v>
+      </c>
+      <c r="K21" s="59">
+        <f>_xlfn.STDEV.S(C4:C18,E4:E18,G4:G18,I4:I18)</f>
+        <v>19.297560294849017</v>
+      </c>
+      <c r="M21" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="19">
-        <f t="shared" ref="L21:S21" si="4">_xlfn.STDEV.S(L4:L18)</f>
+      <c r="N21" s="60">
+        <f t="shared" ref="N21:U21" si="4">_xlfn.STDEV.S(N4:N18)</f>
         <v>25</v>
       </c>
-      <c r="M21" s="19">
+      <c r="O21" s="61">
         <f t="shared" si="4"/>
         <v>14.433756729740644</v>
       </c>
-      <c r="N21" s="19">
+      <c r="P21" s="60">
         <f t="shared" si="4"/>
         <v>14.433756729740644</v>
       </c>
-      <c r="O21" s="19">
+      <c r="Q21" s="61">
         <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
-      <c r="P21" s="19">
+      <c r="R21" s="62">
         <f t="shared" si="4"/>
         <v>23.935677693908453</v>
       </c>
-      <c r="Q21" s="19">
+      <c r="S21" s="63">
         <f t="shared" si="4"/>
         <v>20.412414523193153</v>
       </c>
-      <c r="R21" s="19">
+      <c r="T21" s="60">
         <f t="shared" si="4"/>
         <v>23.935677693908453</v>
       </c>
-      <c r="S21" s="19">
+      <c r="U21" s="61">
         <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
-      <c r="U21" s="36" t="s">
+      <c r="V21" s="60">
+        <f>_xlfn.STDEV.S(N4:N18,P4:P18,R4:R18,T4:T18)</f>
+        <v>22.12653007891959</v>
+      </c>
+      <c r="W21" s="59">
+        <f>_xlfn.STDEV.S(O4:O18,Q4:Q18,S4:S18,U4:U18)</f>
+        <v>18.257418583505537</v>
+      </c>
+      <c r="Y21" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="V21" s="19">
-        <f t="shared" ref="V21:AC21" si="5">_xlfn.STDEV.S(V4:V18)</f>
+      <c r="Z21" s="60">
+        <f t="shared" ref="Z21:AG21" si="5">_xlfn.STDEV.S(Z4:Z18)</f>
         <v>12.5</v>
       </c>
-      <c r="W21" s="19">
+      <c r="AA21" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X21" s="19">
+      <c r="AB21" s="60">
         <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
-      <c r="Y21" s="19">
+      <c r="AC21" s="61">
         <f t="shared" si="5"/>
         <v>14.433756729740644</v>
       </c>
-      <c r="Z21" s="19">
+      <c r="AD21" s="62">
         <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
-      <c r="AA21" s="19">
+      <c r="AE21" s="63">
         <f t="shared" si="5"/>
         <v>23.935677693908453</v>
       </c>
-      <c r="AB21" s="19">
+      <c r="AF21" s="60">
         <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
-      <c r="AC21" s="19">
+      <c r="AG21" s="61">
         <f t="shared" si="5"/>
         <v>31.457643480294792</v>
       </c>
+      <c r="AH21" s="60">
+        <f>_xlfn.STDEV.S(Z4:Z18,AB4:AB18,AD4:AD18,AF4:AF18)</f>
+        <v>15.811388300841896</v>
+      </c>
+      <c r="AI21" s="59">
+        <f>_xlfn.STDEV.S(AA4:AA18,AC4:AC18,AE4:AE18,AG4:AG18)</f>
+        <v>20.412414523193153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A22" s="52"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="46"/>
+      <c r="AA22" s="46"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A23" s="52"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="45"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="V1:AC1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
+  <mergeCells count="16">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="B1:I1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DSCQS実験結果.xlsx
+++ b/DSCQS実験結果.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitRipository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\ドキュメント\Labo\LocalRipository\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D5E3C1-10EC-4092-A840-B6BF4B0D49F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10665" windowHeight="11295"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10665" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
   <si>
     <t>被験者</t>
     <rPh sb="0" eb="3">
@@ -115,11 +121,50 @@
     <t>B</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>t-検定: 分散が等しくないと仮定した２標本による検定</t>
+  </si>
+  <si>
+    <t>変数 1</t>
+  </si>
+  <si>
+    <t>変数 2</t>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>分散</t>
+  </si>
+  <si>
+    <t>観測数</t>
+  </si>
+  <si>
+    <t>仮説平均との差異</t>
+  </si>
+  <si>
+    <t>自由度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t </t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) 片側</t>
+  </si>
+  <si>
+    <t>t 境界値 片側</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) 両側</t>
+  </si>
+  <si>
+    <t>t 境界値 両側</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
@@ -157,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -684,13 +729,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,9 +816,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -802,127 +864,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -943,7 +1014,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -989,6 +1060,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-951B-43CE-A103-E5B402B4D559}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1003,6 +1079,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-951B-43CE-A103-E5B402B4D559}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1017,6 +1098,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-951B-43CE-A103-E5B402B4D559}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1031,6 +1117,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-951B-43CE-A103-E5B402B4D559}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1045,6 +1136,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-951B-43CE-A103-E5B402B4D559}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:errBars>
             <c:errBarType val="both"/>
@@ -1238,6 +1334,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-951B-43CE-A103-E5B402B4D559}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1407,7 +1508,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -1453,6 +1554,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-ED1C-416F-9864-3E6D78318547}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1467,6 +1573,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-ED1C-416F-9864-3E6D78318547}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1481,6 +1592,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-ED1C-416F-9864-3E6D78318547}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1495,6 +1611,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-ED1C-416F-9864-3E6D78318547}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1509,6 +1630,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-ED1C-416F-9864-3E6D78318547}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:errBars>
             <c:errBarType val="both"/>
@@ -1702,6 +1828,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-ED1C-416F-9864-3E6D78318547}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1871,7 +2002,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -1919,6 +2050,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5C83-4666-92F3-F2925D279CD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1933,6 +2069,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5C83-4666-92F3-F2925D279CD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1947,6 +2088,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5C83-4666-92F3-F2925D279CD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1961,6 +2107,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5C83-4666-92F3-F2925D279CD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1975,6 +2126,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-5C83-4666-92F3-F2925D279CD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:errBars>
             <c:errBarType val="both"/>
@@ -2168,6 +2324,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-5C83-4666-92F3-F2925D279CD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3982,7 +4143,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="グラフ 7"/>
+        <xdr:cNvPr id="8" name="グラフ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4012,7 +4179,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="グラフ 8"/>
+        <xdr:cNvPr id="9" name="グラフ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4042,7 +4215,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="グラフ 9"/>
+        <xdr:cNvPr id="10" name="グラフ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4322,11 +4501,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AI60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T49" sqref="T49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4351,146 +4530,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="3" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77"/>
-      <c r="B1" s="76" t="s">
+      <c r="A1" s="67"/>
+      <c r="B1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="66"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="48" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="57"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="66"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="48" t="s">
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="57"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="66"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="57"/>
     </row>
     <row r="2" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24"/>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54" t="s">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54" t="s">
+      <c r="G2" s="72"/>
+      <c r="H2" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="39" t="s">
+      <c r="I2" s="72"/>
+      <c r="J2" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="51"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="50" t="s">
+      <c r="K2" s="69"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="50" t="s">
+      <c r="O2" s="69"/>
+      <c r="P2" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="50" t="s">
+      <c r="Q2" s="69"/>
+      <c r="R2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="51"/>
-      <c r="T2" s="50" t="s">
+      <c r="S2" s="69"/>
+      <c r="T2" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="51"/>
-      <c r="V2" s="50" t="s">
+      <c r="U2" s="69"/>
+      <c r="V2" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="51"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="50" t="s">
+      <c r="W2" s="69"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="50" t="s">
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="50" t="s">
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="50" t="s">
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="50" t="s">
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AI2" s="51"/>
+      <c r="AI2" s="69"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="70" t="s">
+      <c r="K3" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="35" t="s">
         <v>0</v>
       </c>
       <c r="N3" s="13" t="s">
@@ -4517,13 +4696,13 @@
       <c r="U3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="69" t="s">
+      <c r="V3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="W3" s="70" t="s">
+      <c r="W3" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="36" t="s">
+      <c r="Y3" s="35" t="s">
         <v>0</v>
       </c>
       <c r="Z3" s="13" t="s">
@@ -4550,133 +4729,133 @@
       <c r="AG3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AH3" s="69" t="s">
+      <c r="AH3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="AI3" s="70" t="s">
+      <c r="AI3" s="61" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A4" s="32">
+      <c r="A4" s="31">
         <v>1</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="32">
         <v>25</v>
       </c>
-      <c r="C4" s="74">
+      <c r="C4" s="65">
         <v>75</v>
       </c>
-      <c r="D4" s="74">
+      <c r="D4" s="65">
         <v>25</v>
       </c>
-      <c r="E4" s="74">
+      <c r="E4" s="65">
         <v>75</v>
       </c>
-      <c r="F4" s="74">
+      <c r="F4" s="65">
         <v>75</v>
       </c>
-      <c r="G4" s="74">
+      <c r="G4" s="65">
         <v>100</v>
       </c>
-      <c r="H4" s="74">
+      <c r="H4" s="65">
         <v>25</v>
       </c>
-      <c r="I4" s="74">
+      <c r="I4" s="65">
         <v>75</v>
       </c>
-      <c r="J4" s="67"/>
-      <c r="K4" s="68"/>
-      <c r="M4" s="32">
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
+      <c r="M4" s="31">
         <v>1</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="32">
         <v>25</v>
       </c>
-      <c r="O4" s="34">
+      <c r="O4" s="33">
         <v>75</v>
       </c>
-      <c r="P4" s="35">
+      <c r="P4" s="34">
         <v>50</v>
       </c>
       <c r="Q4" s="10">
         <v>75</v>
       </c>
-      <c r="R4" s="35">
+      <c r="R4" s="34">
         <v>75</v>
       </c>
       <c r="S4" s="10">
         <v>75</v>
       </c>
-      <c r="T4" s="33">
+      <c r="T4" s="32">
         <v>25</v>
       </c>
       <c r="U4" s="10">
         <v>75</v>
       </c>
-      <c r="V4" s="67"/>
-      <c r="W4" s="68"/>
-      <c r="Y4" s="32">
+      <c r="V4" s="58"/>
+      <c r="W4" s="59"/>
+      <c r="Y4" s="31">
         <v>1</v>
       </c>
-      <c r="Z4" s="33">
+      <c r="Z4" s="32">
         <v>50</v>
       </c>
-      <c r="AA4" s="34">
+      <c r="AA4" s="33">
         <v>75</v>
       </c>
-      <c r="AB4" s="35">
+      <c r="AB4" s="34">
         <v>50</v>
       </c>
       <c r="AC4" s="10">
         <v>100</v>
       </c>
-      <c r="AD4" s="35">
+      <c r="AD4" s="34">
         <v>75</v>
       </c>
       <c r="AE4" s="10">
         <v>75</v>
       </c>
-      <c r="AF4" s="33">
+      <c r="AF4" s="32">
         <v>50</v>
       </c>
       <c r="AG4" s="10">
         <v>75</v>
       </c>
-      <c r="AH4" s="67"/>
-      <c r="AI4" s="68"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="59"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A5" s="25">
+      <c r="A5" s="24">
         <v>2</v>
       </c>
       <c r="B5" s="9">
         <v>25</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="36">
         <v>75</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="36">
         <v>25</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="36">
         <v>75</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="36">
         <v>75</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="36">
         <v>50</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="36">
         <v>25</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="36">
         <v>75</v>
       </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="56"/>
-      <c r="M5" s="25">
+      <c r="J5" s="39"/>
+      <c r="K5" s="48"/>
+      <c r="M5" s="24">
         <v>2</v>
       </c>
       <c r="N5" s="9">
@@ -4703,9 +4882,9 @@
       <c r="U5" s="5">
         <v>50</v>
       </c>
-      <c r="V5" s="43"/>
-      <c r="W5" s="56"/>
-      <c r="Y5" s="25">
+      <c r="V5" s="39"/>
+      <c r="W5" s="48"/>
+      <c r="Y5" s="24">
         <v>2</v>
       </c>
       <c r="Z5" s="9">
@@ -4732,40 +4911,40 @@
       <c r="AG5" s="5">
         <v>75</v>
       </c>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="56"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="48"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A6" s="25">
+      <c r="A6" s="24">
         <v>3</v>
       </c>
       <c r="B6" s="9">
         <v>25</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="36">
         <v>100</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="36">
         <v>25</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="36">
         <v>75</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="36">
         <v>50</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="36">
         <v>50</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="36">
         <v>75</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="36">
         <v>100</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="56"/>
-      <c r="M6" s="25">
+      <c r="J6" s="39"/>
+      <c r="K6" s="48"/>
+      <c r="M6" s="24">
         <v>3</v>
       </c>
       <c r="N6" s="9">
@@ -4792,9 +4971,9 @@
       <c r="U6" s="5">
         <v>50</v>
       </c>
-      <c r="V6" s="43"/>
-      <c r="W6" s="56"/>
-      <c r="Y6" s="25">
+      <c r="V6" s="39"/>
+      <c r="W6" s="48"/>
+      <c r="Y6" s="24">
         <v>3</v>
       </c>
       <c r="Z6" s="9">
@@ -4821,40 +5000,40 @@
       <c r="AG6" s="5">
         <v>100</v>
       </c>
-      <c r="AH6" s="43"/>
-      <c r="AI6" s="56"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="48"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A7" s="25">
+      <c r="A7" s="24">
         <v>4</v>
       </c>
       <c r="B7" s="9">
         <v>50</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="36">
         <v>75</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="36">
         <v>25</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="36">
         <v>75</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="36">
         <v>50</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="36">
         <v>75</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="36">
         <v>50</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="36">
         <v>25</v>
       </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="56"/>
-      <c r="M7" s="25">
+      <c r="J7" s="39"/>
+      <c r="K7" s="48"/>
+      <c r="M7" s="24">
         <v>4</v>
       </c>
       <c r="N7" s="9">
@@ -4881,9 +5060,9 @@
       <c r="U7" s="5">
         <v>50</v>
       </c>
-      <c r="V7" s="43"/>
-      <c r="W7" s="56"/>
-      <c r="Y7" s="25">
+      <c r="V7" s="39"/>
+      <c r="W7" s="48"/>
+      <c r="Y7" s="24">
         <v>4</v>
       </c>
       <c r="Z7" s="9">
@@ -4910,24 +5089,24 @@
       <c r="AG7" s="5">
         <v>25</v>
       </c>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="56"/>
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="48"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A8" s="25">
+      <c r="A8" s="24">
         <v>5</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="56"/>
-      <c r="M8" s="25">
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="48"/>
+      <c r="M8" s="24">
         <v>5</v>
       </c>
       <c r="N8" s="9"/>
@@ -4938,9 +5117,9 @@
       <c r="S8" s="5"/>
       <c r="T8" s="9"/>
       <c r="U8" s="5"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="56"/>
-      <c r="Y8" s="25">
+      <c r="V8" s="39"/>
+      <c r="W8" s="48"/>
+      <c r="Y8" s="24">
         <v>5</v>
       </c>
       <c r="Z8" s="9"/>
@@ -4951,24 +5130,24 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="9"/>
       <c r="AG8" s="5"/>
-      <c r="AH8" s="43"/>
-      <c r="AI8" s="56"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="48"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A9" s="25">
+      <c r="A9" s="24">
         <v>6</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="56"/>
-      <c r="M9" s="25">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="48"/>
+      <c r="M9" s="24">
         <v>6</v>
       </c>
       <c r="N9" s="9"/>
@@ -4979,9 +5158,9 @@
       <c r="S9" s="5"/>
       <c r="T9" s="9"/>
       <c r="U9" s="5"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="56"/>
-      <c r="Y9" s="25">
+      <c r="V9" s="39"/>
+      <c r="W9" s="48"/>
+      <c r="Y9" s="24">
         <v>6</v>
       </c>
       <c r="Z9" s="9"/>
@@ -4992,24 +5171,24 @@
       <c r="AE9" s="5"/>
       <c r="AF9" s="9"/>
       <c r="AG9" s="5"/>
-      <c r="AH9" s="43"/>
-      <c r="AI9" s="56"/>
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="48"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A10" s="25">
+      <c r="A10" s="24">
         <v>7</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="56"/>
-      <c r="M10" s="25">
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="48"/>
+      <c r="M10" s="24">
         <v>7</v>
       </c>
       <c r="N10" s="9"/>
@@ -5020,9 +5199,9 @@
       <c r="S10" s="5"/>
       <c r="T10" s="9"/>
       <c r="U10" s="5"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="56"/>
-      <c r="Y10" s="25">
+      <c r="V10" s="39"/>
+      <c r="W10" s="48"/>
+      <c r="Y10" s="24">
         <v>7</v>
       </c>
       <c r="Z10" s="9"/>
@@ -5033,24 +5212,24 @@
       <c r="AE10" s="5"/>
       <c r="AF10" s="9"/>
       <c r="AG10" s="5"/>
-      <c r="AH10" s="43"/>
-      <c r="AI10" s="56"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="48"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A11" s="25">
+      <c r="A11" s="24">
         <v>8</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="56"/>
-      <c r="M11" s="25">
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="48"/>
+      <c r="M11" s="24">
         <v>8</v>
       </c>
       <c r="N11" s="9"/>
@@ -5061,9 +5240,9 @@
       <c r="S11" s="5"/>
       <c r="T11" s="9"/>
       <c r="U11" s="5"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="56"/>
-      <c r="Y11" s="25">
+      <c r="V11" s="39"/>
+      <c r="W11" s="48"/>
+      <c r="Y11" s="24">
         <v>8</v>
       </c>
       <c r="Z11" s="9"/>
@@ -5074,24 +5253,24 @@
       <c r="AE11" s="5"/>
       <c r="AF11" s="9"/>
       <c r="AG11" s="5"/>
-      <c r="AH11" s="43"/>
-      <c r="AI11" s="56"/>
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="48"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A12" s="25">
+      <c r="A12" s="24">
         <v>9</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="56"/>
-      <c r="M12" s="25">
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="48"/>
+      <c r="M12" s="24">
         <v>9</v>
       </c>
       <c r="N12" s="9"/>
@@ -5102,9 +5281,9 @@
       <c r="S12" s="5"/>
       <c r="T12" s="9"/>
       <c r="U12" s="5"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="56"/>
-      <c r="Y12" s="25">
+      <c r="V12" s="39"/>
+      <c r="W12" s="48"/>
+      <c r="Y12" s="24">
         <v>9</v>
       </c>
       <c r="Z12" s="9"/>
@@ -5115,24 +5294,24 @@
       <c r="AE12" s="5"/>
       <c r="AF12" s="9"/>
       <c r="AG12" s="5"/>
-      <c r="AH12" s="43"/>
-      <c r="AI12" s="56"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="48"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A13" s="25">
+      <c r="A13" s="24">
         <v>10</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="56"/>
-      <c r="M13" s="25">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="48"/>
+      <c r="M13" s="24">
         <v>10</v>
       </c>
       <c r="N13" s="9"/>
@@ -5143,9 +5322,9 @@
       <c r="S13" s="5"/>
       <c r="T13" s="9"/>
       <c r="U13" s="5"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="56"/>
-      <c r="Y13" s="25">
+      <c r="V13" s="39"/>
+      <c r="W13" s="48"/>
+      <c r="Y13" s="24">
         <v>10</v>
       </c>
       <c r="Z13" s="9"/>
@@ -5156,24 +5335,24 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="9"/>
       <c r="AG13" s="5"/>
-      <c r="AH13" s="43"/>
-      <c r="AI13" s="56"/>
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="48"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A14" s="25">
+      <c r="A14" s="24">
         <v>11</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="56"/>
-      <c r="M14" s="25">
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="48"/>
+      <c r="M14" s="24">
         <v>11</v>
       </c>
       <c r="N14" s="9"/>
@@ -5184,9 +5363,9 @@
       <c r="S14" s="5"/>
       <c r="T14" s="9"/>
       <c r="U14" s="5"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="56"/>
-      <c r="Y14" s="25">
+      <c r="V14" s="39"/>
+      <c r="W14" s="48"/>
+      <c r="Y14" s="24">
         <v>11</v>
       </c>
       <c r="Z14" s="9"/>
@@ -5197,24 +5376,24 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="5"/>
-      <c r="AH14" s="43"/>
-      <c r="AI14" s="56"/>
+      <c r="AH14" s="39"/>
+      <c r="AI14" s="48"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A15" s="25">
+      <c r="A15" s="24">
         <v>12</v>
       </c>
       <c r="B15" s="9"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="56"/>
-      <c r="M15" s="25">
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="48"/>
+      <c r="M15" s="24">
         <v>12</v>
       </c>
       <c r="N15" s="9"/>
@@ -5225,9 +5404,9 @@
       <c r="S15" s="5"/>
       <c r="T15" s="9"/>
       <c r="U15" s="5"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="56"/>
-      <c r="Y15" s="25">
+      <c r="V15" s="39"/>
+      <c r="W15" s="48"/>
+      <c r="Y15" s="24">
         <v>12</v>
       </c>
       <c r="Z15" s="9"/>
@@ -5238,24 +5417,24 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="9"/>
       <c r="AG15" s="5"/>
-      <c r="AH15" s="43"/>
-      <c r="AI15" s="56"/>
+      <c r="AH15" s="39"/>
+      <c r="AI15" s="48"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A16" s="25">
+      <c r="A16" s="24">
         <v>13</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="56"/>
-      <c r="M16" s="25">
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="48"/>
+      <c r="M16" s="24">
         <v>13</v>
       </c>
       <c r="N16" s="9"/>
@@ -5266,9 +5445,9 @@
       <c r="S16" s="5"/>
       <c r="T16" s="9"/>
       <c r="U16" s="5"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="56"/>
-      <c r="Y16" s="25">
+      <c r="V16" s="39"/>
+      <c r="W16" s="48"/>
+      <c r="Y16" s="24">
         <v>13</v>
       </c>
       <c r="Z16" s="9"/>
@@ -5279,24 +5458,24 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="9"/>
       <c r="AG16" s="5"/>
-      <c r="AH16" s="43"/>
-      <c r="AI16" s="56"/>
+      <c r="AH16" s="39"/>
+      <c r="AI16" s="48"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A17" s="25">
+      <c r="A17" s="24">
         <v>14</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="56"/>
-      <c r="M17" s="25">
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="48"/>
+      <c r="M17" s="24">
         <v>14</v>
       </c>
       <c r="N17" s="9"/>
@@ -5307,9 +5486,9 @@
       <c r="S17" s="5"/>
       <c r="T17" s="9"/>
       <c r="U17" s="5"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="56"/>
-      <c r="Y17" s="25">
+      <c r="V17" s="39"/>
+      <c r="W17" s="48"/>
+      <c r="Y17" s="24">
         <v>14</v>
       </c>
       <c r="Z17" s="9"/>
@@ -5320,24 +5499,24 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="9"/>
       <c r="AG17" s="5"/>
-      <c r="AH17" s="43"/>
-      <c r="AI17" s="56"/>
+      <c r="AH17" s="39"/>
+      <c r="AI17" s="48"/>
     </row>
     <row r="18" spans="1:35" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36">
+      <c r="A18" s="35">
         <v>15</v>
       </c>
       <c r="B18" s="17"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="72"/>
-      <c r="M18" s="26">
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="63"/>
+      <c r="M18" s="25">
         <v>15</v>
       </c>
       <c r="N18" s="17"/>
@@ -5348,9 +5527,9 @@
       <c r="S18" s="16"/>
       <c r="T18" s="17"/>
       <c r="U18" s="16"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="72"/>
-      <c r="Y18" s="26">
+      <c r="V18" s="62"/>
+      <c r="W18" s="63"/>
+      <c r="Y18" s="25">
         <v>15</v>
       </c>
       <c r="Z18" s="17"/>
@@ -5361,81 +5540,81 @@
       <c r="AE18" s="16"/>
       <c r="AF18" s="17"/>
       <c r="AG18" s="16"/>
-      <c r="AH18" s="71"/>
-      <c r="AI18" s="72"/>
+      <c r="AH18" s="62"/>
+      <c r="AI18" s="63"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="44"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="40"/>
       <c r="K19" s="19"/>
-      <c r="M19" s="27"/>
+      <c r="M19" s="26"/>
       <c r="N19" s="18"/>
       <c r="O19" s="19"/>
       <c r="P19" s="18"/>
       <c r="Q19" s="19"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="31"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="30"/>
       <c r="T19" s="18"/>
       <c r="U19" s="19"/>
       <c r="V19" s="18"/>
       <c r="W19" s="19"/>
-      <c r="Y19" s="27"/>
+      <c r="Y19" s="26"/>
       <c r="Z19" s="18"/>
       <c r="AA19" s="19"/>
       <c r="AB19" s="18"/>
       <c r="AC19" s="19"/>
-      <c r="AD19" s="21"/>
-      <c r="AE19" s="31"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="30"/>
       <c r="AF19" s="18"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="18"/>
       <c r="AI19" s="19"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="47">
+      <c r="B20" s="21">
         <f>AVERAGE(B4:B18)</f>
         <v>31.25</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="43">
         <f t="shared" ref="C20:I20" si="0">AVERAGE(C4:C18)</f>
         <v>81.25</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="43">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="43">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="43">
         <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="43">
         <f t="shared" si="0"/>
         <v>68.75</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="43">
         <f t="shared" si="0"/>
         <v>43.75</v>
       </c>
-      <c r="I20" s="47">
+      <c r="I20" s="43">
         <f t="shared" si="0"/>
         <v>68.75</v>
       </c>
-      <c r="J20" s="47">
+      <c r="J20" s="43">
         <f>AVERAGE(B20,D20, F20, H20)</f>
         <v>40.625</v>
       </c>
@@ -5443,10 +5622,10 @@
         <f>AVERAGE(C20, E20, G20, I20)</f>
         <v>73.4375</v>
       </c>
-      <c r="M20" s="28" t="s">
+      <c r="M20" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="N20" s="30">
+      <c r="N20" s="29">
         <f t="shared" ref="N20:U20" si="1">AVERAGE(N4:N18)</f>
         <v>37.5</v>
       </c>
@@ -5454,7 +5633,7 @@
         <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
-      <c r="P20" s="30">
+      <c r="P20" s="29">
         <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
@@ -5462,15 +5641,15 @@
         <f t="shared" si="1"/>
         <v>81.25</v>
       </c>
-      <c r="R20" s="22">
+      <c r="R20" s="21">
         <f t="shared" si="1"/>
         <v>56.25</v>
       </c>
-      <c r="S20" s="29">
+      <c r="S20" s="28">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="T20" s="30">
+      <c r="T20" s="29">
         <f t="shared" si="1"/>
         <v>56.25</v>
       </c>
@@ -5478,7 +5657,7 @@
         <f t="shared" si="1"/>
         <v>56.25</v>
       </c>
-      <c r="V20" s="30">
+      <c r="V20" s="29">
         <f>AVERAGE(N20,P20, R20, T20)</f>
         <v>46.875</v>
       </c>
@@ -5486,10 +5665,10 @@
         <f>AVERAGE(O20, Q20, S20, U20)</f>
         <v>75</v>
       </c>
-      <c r="Y20" s="28" t="s">
+      <c r="Y20" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="Z20" s="30">
+      <c r="Z20" s="29">
         <f t="shared" ref="Z20:AG20" si="2">AVERAGE(Z4:Z18)</f>
         <v>43.75</v>
       </c>
@@ -5497,7 +5676,7 @@
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="AB20" s="30">
+      <c r="AB20" s="29">
         <f t="shared" si="2"/>
         <v>43.75</v>
       </c>
@@ -5505,15 +5684,15 @@
         <f t="shared" si="2"/>
         <v>87.5</v>
       </c>
-      <c r="AD20" s="22">
+      <c r="AD20" s="21">
         <f t="shared" si="2"/>
         <v>68.75</v>
       </c>
-      <c r="AE20" s="29">
+      <c r="AE20" s="28">
         <f t="shared" si="2"/>
         <v>68.75</v>
       </c>
-      <c r="AF20" s="30">
+      <c r="AF20" s="29">
         <f t="shared" si="2"/>
         <v>43.75</v>
       </c>
@@ -5521,7 +5700,7 @@
         <f t="shared" si="2"/>
         <v>68.75</v>
       </c>
-      <c r="AH20" s="30">
+      <c r="AH20" s="29">
         <f>AVERAGE(Z20,AB20, AD20, AF20)</f>
         <v>50</v>
       </c>
@@ -5531,244 +5710,412 @@
       </c>
     </row>
     <row r="21" spans="1:35" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="58">
+      <c r="B21" s="53">
         <f>_xlfn.STDEV.S(B4:B18)</f>
         <v>12.5</v>
       </c>
-      <c r="C21" s="58">
+      <c r="C21" s="49">
         <f t="shared" ref="C21:I21" si="3">_xlfn.STDEV.S(C4:C18)</f>
         <v>12.5</v>
       </c>
-      <c r="D21" s="58">
+      <c r="D21" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E21" s="58">
+      <c r="E21" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F21" s="58">
+      <c r="F21" s="49">
         <f t="shared" si="3"/>
         <v>14.433756729740644</v>
       </c>
-      <c r="G21" s="58">
+      <c r="G21" s="49">
         <f t="shared" si="3"/>
         <v>23.935677693908453</v>
       </c>
-      <c r="H21" s="58">
+      <c r="H21" s="49">
         <f t="shared" si="3"/>
         <v>23.935677693908453</v>
       </c>
-      <c r="I21" s="58">
+      <c r="I21" s="49">
         <f t="shared" si="3"/>
         <v>31.457643480294792</v>
       </c>
-      <c r="J21" s="58">
+      <c r="J21" s="49">
         <f>_xlfn.STDEV.S(B4:B18,D4:D18,F4:F18,H4:H18)</f>
         <v>20.155644370746373</v>
       </c>
-      <c r="K21" s="59">
+      <c r="K21" s="50">
         <f>_xlfn.STDEV.S(C4:C18,E4:E18,G4:G18,I4:I18)</f>
         <v>19.297560294849017</v>
       </c>
-      <c r="M21" s="64" t="s">
+      <c r="M21" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="60">
+      <c r="N21" s="51">
         <f t="shared" ref="N21:U21" si="4">_xlfn.STDEV.S(N4:N18)</f>
         <v>25</v>
       </c>
-      <c r="O21" s="61">
+      <c r="O21" s="52">
         <f t="shared" si="4"/>
         <v>14.433756729740644</v>
       </c>
-      <c r="P21" s="60">
+      <c r="P21" s="51">
         <f t="shared" si="4"/>
         <v>14.433756729740644</v>
       </c>
-      <c r="Q21" s="61">
+      <c r="Q21" s="52">
         <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
-      <c r="R21" s="62">
+      <c r="R21" s="53">
         <f t="shared" si="4"/>
         <v>23.935677693908453</v>
       </c>
-      <c r="S21" s="63">
+      <c r="S21" s="54">
         <f t="shared" si="4"/>
         <v>20.412414523193153</v>
       </c>
-      <c r="T21" s="60">
+      <c r="T21" s="51">
         <f t="shared" si="4"/>
         <v>23.935677693908453</v>
       </c>
-      <c r="U21" s="61">
+      <c r="U21" s="52">
         <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
-      <c r="V21" s="60">
+      <c r="V21" s="51">
         <f>_xlfn.STDEV.S(N4:N18,P4:P18,R4:R18,T4:T18)</f>
         <v>22.12653007891959</v>
       </c>
-      <c r="W21" s="59">
+      <c r="W21" s="50">
         <f>_xlfn.STDEV.S(O4:O18,Q4:Q18,S4:S18,U4:U18)</f>
         <v>18.257418583505537</v>
       </c>
-      <c r="Y21" s="64" t="s">
+      <c r="Y21" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="Z21" s="60">
+      <c r="Z21" s="51">
         <f t="shared" ref="Z21:AG21" si="5">_xlfn.STDEV.S(Z4:Z18)</f>
         <v>12.5</v>
       </c>
-      <c r="AA21" s="61">
+      <c r="AA21" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB21" s="60">
+      <c r="AB21" s="51">
         <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
-      <c r="AC21" s="61">
+      <c r="AC21" s="52">
         <f t="shared" si="5"/>
         <v>14.433756729740644</v>
       </c>
-      <c r="AD21" s="62">
+      <c r="AD21" s="53">
         <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
-      <c r="AE21" s="63">
+      <c r="AE21" s="54">
         <f t="shared" si="5"/>
         <v>23.935677693908453</v>
       </c>
-      <c r="AF21" s="60">
+      <c r="AF21" s="51">
         <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
-      <c r="AG21" s="61">
+      <c r="AG21" s="52">
         <f t="shared" si="5"/>
         <v>31.457643480294792</v>
       </c>
-      <c r="AH21" s="60">
+      <c r="AH21" s="51">
         <f>_xlfn.STDEV.S(Z4:Z18,AB4:AB18,AD4:AD18,AF4:AF18)</f>
         <v>15.811388300841896</v>
       </c>
-      <c r="AI21" s="59">
+      <c r="AI21" s="50">
         <f>_xlfn.STDEV.S(AA4:AA18,AC4:AC18,AE4:AE18,AG4:AG18)</f>
         <v>20.412414523193153</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A22" s="52"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="Y22" s="52"/>
-      <c r="Z22" s="46"/>
-      <c r="AA22" s="46"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="42"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A23" s="52"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="45"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="41"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B45" s="32">
+        <v>25</v>
+      </c>
+      <c r="C45" s="65">
+        <v>75</v>
+      </c>
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45"/>
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
+      <c r="B46" s="9">
+        <v>25</v>
+      </c>
+      <c r="C46" s="36">
+        <v>75</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
+      <c r="B47" s="9">
+        <v>25</v>
+      </c>
+      <c r="C47" s="36">
+        <v>100</v>
+      </c>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="79" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
+      <c r="B48" s="9">
+        <v>50</v>
+      </c>
+      <c r="C48" s="36">
+        <v>75</v>
+      </c>
+      <c r="E48" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="77">
+        <v>40.625</v>
+      </c>
+      <c r="G48" s="77">
+        <v>73.4375</v>
+      </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
+      <c r="B49" s="65">
+        <v>25</v>
+      </c>
+      <c r="C49" s="65">
+        <v>75</v>
+      </c>
+      <c r="E49" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="77">
+        <v>406.25</v>
+      </c>
+      <c r="G49" s="77">
+        <v>372.39583333333331</v>
+      </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
+      <c r="B50" s="36">
+        <v>25</v>
+      </c>
+      <c r="C50" s="36">
+        <v>75</v>
+      </c>
+      <c r="E50" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="77">
+        <v>16</v>
+      </c>
+      <c r="G50" s="77">
+        <v>16</v>
+      </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
+      <c r="B51" s="36">
+        <v>25</v>
+      </c>
+      <c r="C51" s="36">
+        <v>75</v>
+      </c>
+      <c r="E51" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="77">
+        <v>0</v>
+      </c>
+      <c r="G51" s="77"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
+      <c r="B52" s="36">
+        <v>25</v>
+      </c>
+      <c r="C52" s="36">
+        <v>75</v>
+      </c>
+      <c r="E52" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="77">
+        <v>30</v>
+      </c>
+      <c r="G52" s="77"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53"/>
+      <c r="B53" s="65">
+        <v>75</v>
+      </c>
+      <c r="C53" s="65">
+        <v>100</v>
+      </c>
+      <c r="E53" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="77">
+        <v>-4.7035886107734797</v>
+      </c>
+      <c r="G53" s="77"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54"/>
+      <c r="B54" s="36">
+        <v>75</v>
+      </c>
+      <c r="C54" s="36">
+        <v>50</v>
+      </c>
+      <c r="E54" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="77">
+        <v>2.6868592146324244E-5</v>
+      </c>
+      <c r="G54" s="77"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
+      <c r="B55" s="36">
+        <v>50</v>
+      </c>
+      <c r="C55" s="36">
+        <v>50</v>
+      </c>
+      <c r="E55" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="77">
+        <v>1.6972608865939587</v>
+      </c>
+      <c r="G55" s="77"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56"/>
-      <c r="B56"/>
-      <c r="C56"/>
+      <c r="B56" s="36">
+        <v>50</v>
+      </c>
+      <c r="C56" s="36">
+        <v>75</v>
+      </c>
+      <c r="E56" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="77">
+        <v>5.3737184292648488E-5</v>
+      </c>
+      <c r="G56" s="77"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
+      <c r="B57" s="65">
+        <v>25</v>
+      </c>
+      <c r="C57" s="65">
+        <v>75</v>
+      </c>
+      <c r="E57" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" s="78">
+        <v>2.0422724563012378</v>
+      </c>
+      <c r="G57" s="78"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
+      <c r="B58" s="36">
+        <v>25</v>
+      </c>
+      <c r="C58" s="36">
+        <v>75</v>
+      </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59"/>
+      <c r="B59" s="36">
+        <v>75</v>
+      </c>
+      <c r="C59" s="36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B60" s="36">
+        <v>50</v>
+      </c>
+      <c r="C60" s="36">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B1:I1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="AH2:AI2"/>
@@ -5777,11 +6124,6 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B1:I1"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AB2:AC2"/>
